--- a/Elkraft1/LoadFlow_results.xlsx
+++ b/Elkraft1/LoadFlow_results.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.868090778749676</v>
+        <v>1.868090778749675</v>
       </c>
       <c r="E3" t="n">
         <v>1.145008406577099</v>
@@ -509,7 +509,7 @@
         <v>0.9824210391715492</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9761219686870423</v>
+        <v>-0.9761219686870429</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9690048036371718</v>
+        <v>0.969004803637172</v>
       </c>
       <c r="C5" t="n">
         <v>-1.872176708580313</v>
@@ -544,7 +544,7 @@
         <v>1.999999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.239399999999996</v>
+        <v>1.239400000000003</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="G8" t="n">
-        <v>3.098600000000003</v>
+        <v>3.09860000000001</v>
       </c>
     </row>
   </sheetData>
@@ -685,13 +685,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.38691532269708</v>
+        <v>0.3869153226970802</v>
       </c>
       <c r="D3" t="n">
         <v>0.2229845579640506</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3846482494551071</v>
+        <v>-0.3846482494551073</v>
       </c>
       <c r="F3" t="n">
         <v>-0.3123631855372906</v>
@@ -700,7 +700,7 @@
         <v>0.002267073241972839</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01133536620986397</v>
+        <v>0.01133536620986403</v>
       </c>
     </row>
     <row r="4">
@@ -711,22 +711,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9811754560525979</v>
+        <v>0.9811754560525969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6121238486130521</v>
+        <v>0.6121238486130464</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9708610712573771</v>
+        <v>-0.9708610712573762</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6356870241289847</v>
+        <v>-0.6356870241289793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01031438479522084</v>
+        <v>0.01031438479522073</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05157192397610411</v>
+        <v>0.05157192397610377</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>1.332506523937628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7491955763708612</v>
+        <v>0.7491955763708611</v>
       </c>
       <c r="G5" t="n">
         <v>0.01715477339273508</v>
@@ -766,19 +766,19 @@
         <v>-1.029138928742624</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6037129758710217</v>
+        <v>-0.6037129758710186</v>
       </c>
       <c r="E6" t="n">
-        <v>1.047493476062374</v>
+        <v>1.047493476062373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5693008552409369</v>
+        <v>0.5693008552409334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01835454731974995</v>
+        <v>0.01835454731974973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09177273659874974</v>
+        <v>0.0917727365987494</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.04809077874967871</v>
+        <v>0.04809077874967838</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2404538937483938</v>
+        <v>0.2404538937483932</v>
       </c>
     </row>
   </sheetData>
